--- a/KiCad/ESP32DUALDIAL-all-pos.xlsx
+++ b/KiCad/ESP32DUALDIAL-all-pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -37,12 +37,15 @@
     <t xml:space="preserve">Rotation</t>
   </si>
   <si>
+    <t xml:space="preserve">BZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottom</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13</t>
   </si>
   <si>
-    <t xml:space="preserve">bottom</t>
-  </si>
-  <si>
     <t xml:space="preserve">C14</t>
   </si>
   <si>
@@ -70,12 +73,27 @@
     <t xml:space="preserve">M2</t>
   </si>
   <si>
+    <t xml:space="preserve">PS1</t>
+  </si>
+  <si>
     <t xml:space="preserve">R23</t>
   </si>
   <si>
     <t xml:space="preserve">R24</t>
   </si>
   <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
@@ -115,6 +133,21 @@
     <t xml:space="preserve">C12</t>
   </si>
   <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -176,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
@@ -191,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
@@ -220,12 +256,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,17 +313,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -313,13 +339,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
@@ -347,801 +373,1077 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>91.088</v>
+        <f aca="false">160-H2</f>
+        <v>77.512</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-48.308</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>-10.308</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>82.488</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>104.088</v>
+        <f aca="false">160-H3</f>
+        <v>68.912</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>-48.308</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>91.088</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
+        <f aca="false">160-H4</f>
+        <v>55.912</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-48.308</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>104.088</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">160-H5</f>
+        <v>95.512</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-52.308</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>64.488</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>-52.308</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>70.488</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>-63.308</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>54.488</v>
+        <f aca="false">160-H6</f>
+        <v>89.512</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-63.308</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>70.488</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <f aca="false">160-H7</f>
+        <v>105.512</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-63.308</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>54.488</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">160-H8</f>
+        <v>143.512</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-58.308</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>16.488</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>-58.308</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="n">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">160-H9</f>
+        <v>153.512</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-53.808</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>6.488</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>-53.808</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">160-H10</f>
+        <v>163.512</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-49.308</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>-3.512</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>-49.308</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>125.988</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>-67.808</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>180</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>114.488</v>
+        <f aca="false">160-H11</f>
+        <v>34.012</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-67.808</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>125.988</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>91.088</v>
+        <f aca="false">160-H12</f>
+        <v>45.512</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-54.108</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>-67.808</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>114.488</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
+        <f aca="false">160-H13</f>
+        <v>102.512</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-39.308</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>57.488</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">160-H14</f>
+        <v>68.912</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-54.108</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>91.088</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">160-H15</f>
+        <v>55.752</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-54.108</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>104.248</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>-54.108</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>169.238</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>-26.483</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>170.238</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>-30.308</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="B16" s="0" t="n">
+        <f aca="false">160-H16</f>
+        <v>143.512</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-37.308</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="H16" s="0" t="n">
+        <v>16.488</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>169.488</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>-22.788</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="0" t="n">
+        <f aca="false">160-H17</f>
+        <v>150.012</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-33.808</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>9.988</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>131.888</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>-27.108</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B18" s="0" t="n">
-        <v>37.663</v>
+        <f aca="false">160-H18</f>
+        <v>157.012</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-29.808</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
+      <c r="D18" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>2.988</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">160-H19</f>
+        <v>164.012</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-26.808</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-4.012</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>167.888</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-24.808</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>171.188</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-33.208</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>169.388</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-28.988</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>131.888</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>-27.108</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>122.792</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>-47.728</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="0" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
         <v>37.663</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>-26.708</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>135.788</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>-44.908</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>139.388</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>-44.908</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>112.488</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>-50.308</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>112.488</v>
-      </c>
       <c r="C24" s="0" t="n">
-        <v>-52.808</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>-29.808</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>37.688</v>
+        <v>122.792</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-24.108</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>-47.728</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>112.488</v>
+        <v>37.663</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-64.308</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>-26.708</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>117.288</v>
+        <v>135.788</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>-57.508</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>-44.908</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>72.663</v>
+        <v>139.388</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>-5.308</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>-44.908</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>168.238</v>
+        <v>112.488</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>-22.483</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>-50.308</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>136.988</v>
+        <v>112.488</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>-11.408</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>-52.808</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>57.488</v>
+        <v>37.688</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>-9.808</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>-24.108</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>54.988</v>
+        <v>134.988</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>-9.808</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>-17.933</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>52.488</v>
+        <v>102.588</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>-9.808</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>-22.608</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>134.988</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>-20.908</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>137.388</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-15.108</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>137.388</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>-21.308</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>112.488</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>-64.308</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>117.288</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>-57.508</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>72.663</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>-5.308</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>167.688</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>-21.708</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>49.988</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>-9.783</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>122.847</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>-50.128</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>117.563</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>-49.558</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>137.663</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>-24.858</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>145.088</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>-23.508</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>141.438</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>-24.158</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>61.688</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>-10.508</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="0" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>64.288</v>
+        <v>140.588</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>-10.483</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>-9.908</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>66.888</v>
+        <v>57.488</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>-10.508</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>-9.808</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="0" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>139.388</v>
+        <v>54.988</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>-11.383</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>-9.808</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>144.388</v>
+        <v>52.488</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>-11.383</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>-9.808</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>141.888</v>
+        <v>49.988</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>-11.383</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>-9.783</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="0" t="n">
+        <v>122.847</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>-50.128</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>117.563</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>-49.558</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>137.663</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>-24.858</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>145.088</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>-23.508</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>141.438</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>-24.158</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>61.688</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>-10.508</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>64.288</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>-10.483</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>66.888</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>-10.508</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>142.788</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>-9.908</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="0" t="n">
         <v>146.788</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>-11.383</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="0" t="n">
+      <c r="C55" s="0" t="n">
+        <v>-11.233</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="0" t="n">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>144.688</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>-10.233</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>148.888</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>-12.283</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>82.488</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>-34.308</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="0" t="n">
         <v>161.488</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C59" s="0" t="n">
         <v>-38.808</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="D59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="0" t="n">
         <v>-158</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="0" t="n">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="0" t="n">
         <v>109.988</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C60" s="0" t="n">
         <v>-5.808</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="0" t="n">
+      <c r="D60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="0" t="n">
         <v>-90</v>
       </c>
     </row>
